--- a/public/files/CitizenDetails–SampleFormat.xlsx
+++ b/public/files/CitizenDetails–SampleFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svs computers\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\React Folder\CSC\vite-project\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F49B6F-3778-463E-9199-1850D4055A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221A3FEA-6F59-47A9-A5E4-D1B476244AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A40B1B83-A0B4-4BBE-8F43-D00D7985255D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A40B1B83-A0B4-4BBE-8F43-D00D7985255D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Beneficiary Name</t>
   </si>
@@ -42,19 +42,25 @@
     <t>Mobile (only 10 digits)</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Father Name</t>
-  </si>
-  <si>
-    <t>Mother Name</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Block Panchayat</t>
+  </si>
+  <si>
+    <t>Gram Panchayat</t>
+  </si>
+  <si>
+    <t>Gram Panchayat Code</t>
   </si>
 </sst>
 </file>
@@ -127,8 +133,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,23 +456,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE6438F-93D7-4BF0-8CAB-FEA3A4318F93}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,6 +496,12 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
